--- a/Cards/Poker/Track.xlsx
+++ b/Cards/Poker/Track.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616ABC2A-C53D-446E-9C7F-2104A49F651E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434D9369-8759-4DAB-B5F3-247306E4475F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>Buy ins</t>
+  </si>
+  <si>
+    <t>08.05.2019</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>% Win</t>
   </si>
 </sst>
 </file>
@@ -83,18 +92,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -372,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E3"/>
+  <dimension ref="B1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -386,33 +399,66 @@
     <col min="5" max="5" width="6.88671875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="E2" s="2">
+        <f>D2-C2</f>
+        <v>5.2</v>
+      </c>
+      <c r="F2" s="4">
+        <f>E2/C2</f>
+        <v>2.6</v>
+      </c>
+      <c r="H2" s="2">
+        <f>SUM(E:E)</f>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>7.2</v>
+        <v>1.5</v>
       </c>
       <c r="E3" s="2">
         <f>D3-C3</f>
-        <v>5.2</v>
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="4">
+        <f>E3/C3</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>

--- a/Cards/Poker/Track.xlsx
+++ b/Cards/Poker/Track.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{434D9369-8759-4DAB-B5F3-247306E4475F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2428C515-5B1F-4CE4-A8F4-1810AC23106D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>% Win</t>
+  </si>
+  <si>
+    <t>10.05.2019</t>
   </si>
 </sst>
 </file>
@@ -385,10 +388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H3"/>
+  <dimension ref="B1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +442,7 @@
       </c>
       <c r="H2" s="2">
         <f>SUM(E:E)</f>
-        <v>5.7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
@@ -459,6 +462,25 @@
       <c r="F3" s="4">
         <f>E3/C3</f>
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="E4" s="2">
+        <f>D4-C4</f>
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="F4" s="4">
+        <f>E4/C4</f>
+        <v>1.9999999999999998</v>
       </c>
     </row>
   </sheetData>
